--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DAA3A2-8216-46D0-9219-BB5F33C964A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AAE87-A634-404D-BD28-7E5AAE0B20D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,192 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
-  <si>
-    <t>Параметры</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+  <si>
+    <t>Сайты:</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>name_attr</t>
+  </si>
+  <si>
+    <t>Azori Eclipse Indigo Настенная плитка 50,5x20,1 см</t>
+  </si>
+  <si>
+    <t>Equipe Artisan 24464 White Настенная плитка 6,5х20 см</t>
+  </si>
+  <si>
+    <t>Керамин Брайт 4 Зеленая Глянцевая Настенная плитка 7,75х27,5 см</t>
+  </si>
+  <si>
+    <t>Керамин Канон 1Д Серая Матовая Настенная плитка 30х90 см</t>
   </si>
   <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
   <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new-price </t>
+  </si>
+  <si>
+    <t>1 229 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>5 570 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 557 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 052 руб. /кв. м.</t>
+  </si>
+  <si>
     <t>https://santehnika-online.ru</t>
   </si>
   <si>
+    <t>b-price__price-core</t>
+  </si>
+  <si>
+    <t>1 320 ₽</t>
+  </si>
+  <si>
     <t>https://www.keramogranit.ru/</t>
   </si>
   <si>
+    <t xml:space="preserve">cat-price__cur </t>
+  </si>
+  <si>
+    <t>5 571</t>
+  </si>
+  <si>
     <t>https://otdelkino.ru/</t>
   </si>
   <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>page-detail__price-value</t>
+  </si>
+  <si>
+    <t>1 789 руб./м2</t>
+  </si>
+  <si>
     <t>https://plitka-sdvk.ru/</t>
   </si>
   <si>
+    <t>b-item-price-block__actual-price</t>
+  </si>
+  <si>
+    <t>1229 руб./м2</t>
+  </si>
+  <si>
+    <t>5571 руб./м2</t>
+  </si>
+  <si>
+    <t>1789 руб./м2</t>
+  </si>
+  <si>
     <t>https://3dplitka.ru/</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>card-price</t>
+  </si>
+  <si>
+    <t>Цена
+1 115 руб./м²</t>
+  </si>
+  <si>
+    <t>Цена
+11 848 руб./м²</t>
+  </si>
+  <si>
+    <t>Цена
+1 599 руб./м²</t>
+  </si>
+  <si>
     <t>https://www.plitkaneo.ru</t>
   </si>
   <si>
+    <t>cardProduct__price__value</t>
+  </si>
+  <si>
+    <t>1 069 ₽/м²</t>
+  </si>
+  <si>
+    <t>1 580 ₽/м²</t>
+  </si>
+  <si>
+    <t>1 160 ₽/м²</t>
+  </si>
+  <si>
     <t>https://www.bestceramic.ru</t>
   </si>
   <si>
+    <t>class="plate__price"</t>
+  </si>
+  <si>
     <t>https://santehnika-tut.ru</t>
   </si>
   <si>
+    <t>div class="price"</t>
+  </si>
+  <si>
     <t>https://mnogoplitki.com</t>
   </si>
   <si>
+    <t>div class="s-card__pay-price"</t>
+  </si>
+  <si>
     <t>https://keram.ru</t>
   </si>
   <si>
+    <t>https://keram.ru/product/eclipse-indigo/?ysclid=m17fd68kod546134601&amp;utm_referrer=https:%2F%2Fkeram.ru%2Fproduct%2Feclipse-indigo%2F%3Fysclid%3Dm17fd68kod546134600</t>
+  </si>
+  <si>
+    <t>https://keram.ru/product/artisan-white/</t>
+  </si>
+  <si>
     <t>https://lemanapro.ru</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>class="plate__price"</t>
-  </si>
-  <si>
-    <t>div class="price"</t>
-  </si>
-  <si>
-    <t>div class="s-card__pay-price"</t>
-  </si>
-  <si>
-    <t>name_attr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new-price </t>
-  </si>
-  <si>
-    <t>b-price__price-core</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cat-price__cur </t>
-  </si>
-  <si>
-    <t>page-detail__price-value</t>
-  </si>
-  <si>
-    <t>b-item-price-block__actual-price</t>
-  </si>
-  <si>
-    <t>card-price</t>
-  </si>
-  <si>
-    <t>cardProduct__price__value</t>
-  </si>
-  <si>
-    <t>Azori Eclipse Indigo Настенная плитка 50,5x20,1 см</t>
-  </si>
-  <si>
-    <t>1 229 руб. /кв. м.</t>
-  </si>
-  <si>
-    <t>1 320 ₽</t>
-  </si>
-  <si>
-    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-azori-eclipse-nastennaya-indigo-20-1kh50-5/?ysclid=m16gfth9uy350611546</t>
-  </si>
-  <si>
-    <t>https://plitka-sdvk.ru/Plitka/Azori/Eclipse-19321/eclipse-plitka-nastennaya-indigo-201kh505/</t>
-  </si>
-  <si>
-    <t>https://3dplitka.ru/product-354352/?ysclid=m16gn7vtnt137612254</t>
-  </si>
-  <si>
-    <t>https://www.plitkaneo.ru/catalog/plitka-nastennaya-eclipse-indigo/</t>
-  </si>
-  <si>
-    <t>https://www.bestceramic.ru/goods/eclipse-indigo-201x505</t>
-  </si>
-  <si>
-    <t>https://santehnika-tut.ru/product/keramicheskaya-plitka-azori-eclipse-indigo-505611101-nastennaya-201-na-505-sm-457620.html</t>
-  </si>
-  <si>
-    <t>https://mnogoplitki.com/catalog/goods/walltile/nastennaya-plitka-azori-505611101-eclipse-indigo-20-1x50-5-sinyaya-glyantsevaya-pod-kamen/</t>
-  </si>
-  <si>
-    <t>https://keram.ru/product/eclipse-indigo/?ysclid=m17fd68kod546134601&amp;utm_referrer=https:%2F%2Fkeram.ru%2Fproduct%2Feclipse-indigo%2F%3Fysclid%3Dm17fd68kod546134600</t>
-  </si>
-  <si>
     <t>https://lemanapro.ru/product/plitka-nastennaya-azori-eclipse-indigo-201x505-sinyaya-152m2-90430676/?utm_referrer=https%3A%2F%2Fya.ru%2F</t>
   </si>
   <si>
-    <t>Equipe Artisan 24464 White Настенная плитка 6,5х20 см</t>
-  </si>
-  <si>
-    <t>5 570 руб. /кв. м.</t>
-  </si>
-  <si>
-    <t>5 571</t>
-  </si>
-  <si>
-    <t>https://otdelkino.ru/kerama/product/keramicheskaya-plitka-equipe-artisan-24464-white-6-5x20/?ysclid=m16gvlihts523749769</t>
-  </si>
-  <si>
-    <t>https://plitka-sdvk.ru/Plitka/EQUIPE/Artisan-22752/plitka-nastennaya-white-65-200x65/</t>
-  </si>
-  <si>
-    <t>https://3dplitka.ru/product-469353/?ysclid=m16gy85bef444037756</t>
-  </si>
-  <si>
-    <t>https://www.bestceramic.ru/goods/24464-artisan-white-65x20</t>
-  </si>
-  <si>
-    <t>https://santehnika-tut.ru/product/keramicheskaya-plitka-equipe-artisan-white-nastennaya-65-na-20-sm-223068.html</t>
-  </si>
-  <si>
-    <t>https://mnogoplitki.com/catalog/goods/walltile/keramicheskaya-plitka-dlya-sten-equipe-artisan-white-6-5x20/</t>
-  </si>
-  <si>
-    <t>https://keram.ru/product/artisan-white/</t>
-  </si>
-  <si>
-    <t>Керамин Брайт 4 Зеленая Глянцевая Настенная плитка 7,75х27,5 см</t>
-  </si>
-  <si>
-    <t>https://www.plitkanadom.ru/collections/belorusskaya-plitka/keramin/brayt/keramin-brayt-4-zelenaya-glyantsevaya-nastennaya-plitka-7-75kh27-5-sm</t>
-  </si>
-  <si>
-    <t>https://www.plitkaneo.ru/catalog/brayt-4-plitka-nastennaya/</t>
-  </si>
-  <si>
     <t>https://lemanapro.ru/product/plitka-keramin-brayt-cdb00028603-775x275sm-0554-m-cvet-zelenyy-91381256/</t>
-  </si>
-  <si>
-    <t>Керамин Канон 1Д Серая Матовая Настенная плитка 30х90 см</t>
-  </si>
-  <si>
-    <t>https://www.plitkanadom.ru/collections/belorusskaya-plitka/keramin/kanon/keramin-kanon-1d-seraya-matovaya-nastennaya-plitka-30kh90</t>
-  </si>
-  <si>
-    <t>https://santehnika-online.ru/product/dekor_keramin_kanon_1d_matovyy_30x90_seryy/546273/</t>
-  </si>
-  <si>
-    <t>https://otdelkino.ru/kerama/keramicheskaya-plitka-keramin-kanon-1d-90x30/</t>
-  </si>
-  <si>
-    <t>https://plitka-sdvk.ru/Plitka/Keramin/Kanon/plitka-nastennaya-5-900x300/</t>
-  </si>
-  <si>
-    <t>https://3dplitka.ru/product-869368/</t>
-  </si>
-  <si>
-    <t>https://www.plitkaneo.ru/catalog/kanon-1d-nastennaya-plitka/</t>
-  </si>
-  <si>
-    <t>https://www.bestceramic.ru/goods/kanon_1d_900kh300</t>
   </si>
 </sst>
 </file>
@@ -261,10 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -568,18 +544,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="7" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,221 +568,266 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="H3" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="F4" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-      <c r="J4" t="s">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="K4" t="s">
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="M4" t="s">
+      <c r="G8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B9" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B10" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="B11" t="s">
         <v>45</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="J5" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="K5" t="s">
+      <c r="E12" t="s">
         <v>48</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F13" t="s">
         <v>51</v>
-      </c>
-      <c r="H6" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29AAE87-A634-404D-BD28-7E5AAE0B20D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA687D3-848D-446F-8C54-66D5CF0D8236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>Сайты:</t>
   </si>
@@ -55,15 +55,6 @@
     <t>1 229 руб. /кв. м.</t>
   </si>
   <si>
-    <t>5 570 руб. /кв. м.</t>
-  </si>
-  <si>
-    <t>1 557 руб. /кв. м.</t>
-  </si>
-  <si>
-    <t>1 052 руб. /кв. м.</t>
-  </si>
-  <si>
     <t>https://santehnika-online.ru</t>
   </si>
   <si>
@@ -89,9 +80,6 @@
   </si>
   <si>
     <t>page-detail__price-value</t>
-  </si>
-  <si>
-    <t>1 789 руб./м2</t>
   </si>
   <si>
     <t>https://plitka-sdvk.ru/</t>
@@ -547,15 +535,13 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
-    <col min="4" max="7" width="45.140625" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="2" max="7" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -594,31 +580,28 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -626,19 +609,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -649,13 +632,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D5" t="b">
         <v>0</v>
@@ -666,85 +649,85 @@
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s">
         <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -764,13 +747,13 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="b">
         <v>0</v>
@@ -787,13 +770,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -810,24 +793,24 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FA687D3-848D-446F-8C54-66D5CF0D8236}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DBA13-50C7-4675-BA39-F4C7A847B77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Сайты:</t>
   </si>
@@ -55,6 +55,15 @@
     <t>1 229 руб. /кв. м.</t>
   </si>
   <si>
+    <t>5 570 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 557 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 052 руб. /кв. м.</t>
+  </si>
+  <si>
     <t>https://santehnika-online.ru</t>
   </si>
   <si>
@@ -80,6 +89,15 @@
   </si>
   <si>
     <t>page-detail__price-value</t>
+  </si>
+  <si>
+    <t>1 229 руб./м2</t>
+  </si>
+  <si>
+    <t>5 262 руб./м2</t>
+  </si>
+  <si>
+    <t>1 789 руб./м2</t>
   </si>
   <si>
     <t>https://plitka-sdvk.ru/</t>
@@ -136,37 +154,49 @@
     <t>https://www.bestceramic.ru</t>
   </si>
   <si>
-    <t>class="plate__price"</t>
+    <t>plate__price</t>
+  </si>
+  <si>
+    <t>1 229</t>
+  </si>
+  <si>
+    <t>1 899</t>
   </si>
   <si>
     <t>https://santehnika-tut.ru</t>
   </si>
   <si>
-    <t>div class="price"</t>
+    <t>price</t>
+  </si>
+  <si>
+    <t>1160 р.</t>
+  </si>
+  <si>
+    <t>5225 р.</t>
   </si>
   <si>
     <t>https://mnogoplitki.com</t>
   </si>
   <si>
-    <t>div class="s-card__pay-price"</t>
+    <t>s-card__pay-price</t>
+  </si>
+  <si>
+    <t>1 069 руб. м2</t>
+  </si>
+  <si>
+    <t>5 362.11 руб. м2</t>
   </si>
   <si>
     <t>https://keram.ru</t>
   </si>
   <si>
-    <t>https://keram.ru/product/eclipse-indigo/?ysclid=m17fd68kod546134601&amp;utm_referrer=https:%2F%2Fkeram.ru%2Fproduct%2Feclipse-indigo%2F%3Fysclid%3Dm17fd68kod546134600</t>
-  </si>
-  <si>
-    <t>https://keram.ru/product/artisan-white/</t>
+    <t>goods-card__price-text</t>
   </si>
   <si>
     <t>https://lemanapro.ru</t>
   </si>
   <si>
-    <t>https://lemanapro.ru/product/plitka-nastennaya-azori-eclipse-indigo-201x505-sinyaya-152m2-90430676/?utm_referrer=https%3A%2F%2Fya.ru%2F</t>
-  </si>
-  <si>
-    <t>https://lemanapro.ru/product/plitka-keramin-brayt-cdb00028603-775x275sm-0554-m-cvet-zelenyy-91381256/</t>
+    <t>p1p5g0yu_pdp</t>
   </si>
 </sst>
 </file>
@@ -185,6 +215,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -222,13 +254,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,13 +564,12 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="7" width="26" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -554,16 +582,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -580,28 +608,31 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -609,19 +640,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -632,134 +663,134 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
+      <c r="G5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="G9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -770,19 +801,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11" t="b">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -793,24 +824,48 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E6DBA13-50C7-4675-BA39-F4C7A847B77D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31783830-D0E1-4A0C-BE32-F11D66A95649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Сайты:</t>
   </si>
@@ -73,6 +73,9 @@
     <t>1 320 ₽</t>
   </si>
   <si>
+    <t>5 496 ₽</t>
+  </si>
+  <si>
     <t>https://www.keramogranit.ru/</t>
   </si>
   <si>
@@ -89,15 +92,6 @@
   </si>
   <si>
     <t>page-detail__price-value</t>
-  </si>
-  <si>
-    <t>1 229 руб./м2</t>
-  </si>
-  <si>
-    <t>5 262 руб./м2</t>
-  </si>
-  <si>
-    <t>1 789 руб./м2</t>
   </si>
   <si>
     <t>https://plitka-sdvk.ru/</t>
@@ -157,12 +151,6 @@
     <t>plate__price</t>
   </si>
   <si>
-    <t>1 229</t>
-  </si>
-  <si>
-    <t>1 899</t>
-  </si>
-  <si>
     <t>https://santehnika-tut.ru</t>
   </si>
   <si>
@@ -191,6 +179,12 @@
   </si>
   <si>
     <t>goods-card__price-text</t>
+  </si>
+  <si>
+    <t>1 069 р./м2</t>
+  </si>
+  <si>
+    <t>4 378 р./м2</t>
   </si>
   <si>
     <t>https://lemanapro.ru</t>
@@ -215,8 +209,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -564,12 +556,15 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="7" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,28 +626,31 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="b">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -663,134 +661,134 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
-        <v>25</v>
+      <c r="G5" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
         <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>39</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
+        <v>41</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>45</v>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -801,19 +799,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -824,19 +822,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12" t="b">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -847,13 +845,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis2\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31783830-D0E1-4A0C-BE32-F11D66A95649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1C588-371E-4BEA-9B07-E33E9FD45E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1C588-371E-4BEA-9B07-E33E9FD45E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18E2BA-E8E2-49CD-8EC8-E29311525E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>Сайты:</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Керамин Канон 1Д Серая Матовая Настенная плитка 30х90 см</t>
   </si>
   <si>
+    <t>Global Tile Antares Серый Матовый Керамогранит 30x60 см</t>
+  </si>
+  <si>
     <t>https://www.plitkanadom.ru</t>
   </si>
   <si>
@@ -58,10 +61,13 @@
     <t>5 570 руб. /кв. м.</t>
   </si>
   <si>
-    <t>1 557 руб. /кв. м.</t>
-  </si>
-  <si>
-    <t>1 052 руб. /кв. м.</t>
+    <t>1 613 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 114 руб. /кв. м.</t>
+  </si>
+  <si>
+    <t>1 369 руб. /кв. м.</t>
   </si>
   <si>
     <t>https://santehnika-online.ru</t>
@@ -73,7 +79,10 @@
     <t>1 320 ₽</t>
   </si>
   <si>
-    <t>5 496 ₽</t>
+    <t>5 568 ₽</t>
+  </si>
+  <si>
+    <t>1 890 ₽</t>
   </si>
   <si>
     <t>https://www.keramogranit.ru/</t>
@@ -94,6 +103,15 @@
     <t>page-detail__price-value</t>
   </si>
   <si>
+    <t>1 229 руб./м2</t>
+  </si>
+  <si>
+    <t>5 262 руб./м2</t>
+  </si>
+  <si>
+    <t>1 789 руб./м2</t>
+  </si>
+  <si>
     <t>https://plitka-sdvk.ru/</t>
   </si>
   <si>
@@ -107,6 +125,9 @@
   </si>
   <si>
     <t>1789 руб./м2</t>
+  </si>
+  <si>
+    <t>1369 руб./м2</t>
   </si>
   <si>
     <t>https://3dplitka.ru/</t>
@@ -151,13 +172,22 @@
     <t>plate__price</t>
   </si>
   <si>
+    <t>1 229</t>
+  </si>
+  <si>
+    <t>1 899</t>
+  </si>
+  <si>
+    <t>1 369</t>
+  </si>
+  <si>
     <t>https://santehnika-tut.ru</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>1160 р.</t>
+    <t>1135 р.</t>
   </si>
   <si>
     <t>5225 р.</t>
@@ -190,7 +220,34 @@
     <t>https://lemanapro.ru</t>
   </si>
   <si>
-    <t>p1p5g0yu_pdp</t>
+    <t>primary-price.p1p5g0yu_pdp</t>
+  </si>
+  <si>
+    <t>https://skladplitka.ru</t>
+  </si>
+  <si>
+    <t>new_price</t>
+  </si>
+  <si>
+    <t>3 185,28Р</t>
+  </si>
+  <si>
+    <t>862,47Р</t>
+  </si>
+  <si>
+    <t>https://plitkazakaz.ru</t>
+  </si>
+  <si>
+    <t>658,35Р</t>
+  </si>
+  <si>
+    <t>2 035,00Р</t>
+  </si>
+  <si>
+    <t>1 229,80Р</t>
+  </si>
+  <si>
+    <t>752,95Р</t>
   </si>
 </sst>
 </file>
@@ -211,12 +268,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -246,11 +309,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -553,7 +620,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
@@ -561,13 +628,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="7" width="48.42578125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="4" max="8" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,80 +643,89 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="b">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -658,137 +733,155 @@
       <c r="G4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F9" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -796,22 +889,25 @@
       <c r="G10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -819,22 +915,25 @@
       <c r="G11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -842,16 +941,19 @@
       <c r="G12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>54</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D13" t="b">
         <v>0</v>
@@ -864,6 +966,61 @@
       </c>
       <c r="G13" t="b">
         <v>0</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB18E2BA-E8E2-49CD-8EC8-E29311525E12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C50C01A-9155-4E5A-8604-66446B1FE764}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Сайты:</t>
   </si>
   <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>name_attr</t>
-  </si>
-  <si>
     <t>Azori Eclipse Indigo Настенная плитка 50,5x20,1 см</t>
   </si>
   <si>
@@ -49,12 +43,6 @@
     <t>https://www.plitkanadom.ru</t>
   </si>
   <si>
-    <t>span</t>
-  </si>
-  <si>
-    <t xml:space="preserve">new-price </t>
-  </si>
-  <si>
     <t>1 229 руб. /кв. м.</t>
   </si>
   <si>
@@ -73,36 +61,21 @@
     <t>https://santehnika-online.ru</t>
   </si>
   <si>
-    <t>b-price__price-core</t>
-  </si>
-  <si>
     <t>1 320 ₽</t>
   </si>
   <si>
-    <t>5 568 ₽</t>
-  </si>
-  <si>
     <t>1 890 ₽</t>
   </si>
   <si>
     <t>https://www.keramogranit.ru/</t>
   </si>
   <si>
-    <t xml:space="preserve">cat-price__cur </t>
-  </si>
-  <si>
     <t>5 571</t>
   </si>
   <si>
     <t>https://otdelkino.ru/</t>
   </si>
   <si>
-    <t>div</t>
-  </si>
-  <si>
-    <t>page-detail__price-value</t>
-  </si>
-  <si>
     <t>1 229 руб./м2</t>
   </si>
   <si>
@@ -115,9 +88,6 @@
     <t>https://plitka-sdvk.ru/</t>
   </si>
   <si>
-    <t>b-item-price-block__actual-price</t>
-  </si>
-  <si>
     <t>1229 руб./м2</t>
   </si>
   <si>
@@ -131,12 +101,6 @@
   </si>
   <si>
     <t>https://3dplitka.ru/</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>card-price</t>
   </si>
   <si>
     <t>Цена
@@ -154,9 +118,6 @@
     <t>https://www.plitkaneo.ru</t>
   </si>
   <si>
-    <t>cardProduct__price__value</t>
-  </si>
-  <si>
     <t>1 069 ₽/м²</t>
   </si>
   <si>
@@ -169,9 +130,6 @@
     <t>https://www.bestceramic.ru</t>
   </si>
   <si>
-    <t>plate__price</t>
-  </si>
-  <si>
     <t>1 229</t>
   </si>
   <si>
@@ -184,9 +142,6 @@
     <t>https://santehnika-tut.ru</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>1135 р.</t>
   </si>
   <si>
@@ -196,9 +151,6 @@
     <t>https://mnogoplitki.com</t>
   </si>
   <si>
-    <t>s-card__pay-price</t>
-  </si>
-  <si>
     <t>1 069 руб. м2</t>
   </si>
   <si>
@@ -208,25 +160,10 @@
     <t>https://keram.ru</t>
   </si>
   <si>
-    <t>goods-card__price-text</t>
-  </si>
-  <si>
-    <t>1 069 р./м2</t>
-  </si>
-  <si>
-    <t>4 378 р./м2</t>
-  </si>
-  <si>
     <t>https://lemanapro.ru</t>
   </si>
   <si>
-    <t>primary-price.p1p5g0yu_pdp</t>
-  </si>
-  <si>
     <t>https://skladplitka.ru</t>
-  </si>
-  <si>
-    <t>new_price</t>
   </si>
   <si>
     <t>3 185,28Р</t>
@@ -268,18 +205,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -309,15 +240,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -620,20 +547,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="8" width="34.5703125" customWidth="1"/>
+    <col min="2" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -643,384 +568,294 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" t="s">
+      <c r="F3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B4" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
         <v>28</v>
       </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="F6" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="H6" t="s">
+      <c r="B9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>41</v>
       </c>
-      <c r="H7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B11" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>45</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="H9" t="s">
+      <c r="C15" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
         <v>52</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="F15" t="s">
         <v>53</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA0CB52-0603-412A-9FAB-00DFD187543C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C73E75B-E23F-473E-BBC3-EA8CE3F5E911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,11 +153,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,22 +464,17 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -523,18 +519,23 @@
       <c r="B2">
         <v>797.94</v>
       </c>
+      <c r="C2" s="2"/>
       <c r="D2">
         <v>3918</v>
       </c>
+      <c r="E2" s="2"/>
       <c r="F2">
         <v>1322</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2">
         <v>913</v>
       </c>
+      <c r="I2" s="2"/>
       <c r="J2">
         <v>1014</v>
       </c>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -543,32 +544,32 @@
       <c r="B3">
         <v>1229</v>
       </c>
-      <c r="C3">
-        <v>54.021605634508838</v>
+      <c r="C3" s="2">
+        <v>0.5402160563450884</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-100</v>
+        <v>5570</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.42164369576314442</v>
       </c>
       <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>-100</v>
+        <v>1613</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.22012102874432671</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>-100</v>
+        <v>1114</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.22015334063526831</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>-100</v>
+        <v>1369</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.35009861932938852</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -578,32 +579,32 @@
       <c r="B4">
         <v>1320</v>
       </c>
-      <c r="C4">
-        <v>65.425971877584772</v>
+      <c r="C4" s="2">
+        <v>0.65425971877584765</v>
       </c>
       <c r="D4">
-        <v>5568</v>
-      </c>
-      <c r="E4">
-        <v>42.113323124042878</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>-100</v>
+      <c r="G4" s="2">
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>1890</v>
-      </c>
-      <c r="I4">
-        <v>107.0098576122672</v>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>-100</v>
+      <c r="K4" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -613,32 +614,32 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>-100</v>
+      <c r="C5" s="2">
+        <v>-1</v>
       </c>
       <c r="D5">
         <v>5571</v>
       </c>
-      <c r="E5">
-        <v>42.189892802450217</v>
+      <c r="E5" s="2">
+        <v>0.42189892802450218</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-      <c r="G5">
-        <v>-100</v>
+      <c r="G5" s="2">
+        <v>-1</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>-100</v>
+      <c r="I5" s="2">
+        <v>-1</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>-100</v>
+      <c r="K5" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -646,34 +647,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-100</v>
+        <v>1229</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.5402160563450884</v>
       </c>
       <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>-100</v>
+        <v>5262</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.34303215926493102</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>-100</v>
+      <c r="G6" s="2">
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>-100</v>
+        <v>1789</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.95947426067908004</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>-100</v>
+      <c r="K6" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -683,32 +684,32 @@
       <c r="B7">
         <v>1229</v>
       </c>
-      <c r="C7">
-        <v>54.021605634508838</v>
+      <c r="C7" s="2">
+        <v>0.5402160563450884</v>
       </c>
       <c r="D7">
         <v>5571</v>
       </c>
-      <c r="E7">
-        <v>42.189892802450217</v>
+      <c r="E7" s="2">
+        <v>0.42189892802450218</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
-      <c r="G7">
-        <v>-100</v>
+      <c r="G7" s="2">
+        <v>-1</v>
       </c>
       <c r="H7">
         <v>1789</v>
       </c>
-      <c r="I7">
-        <v>95.947426067907998</v>
+      <c r="I7" s="2">
+        <v>0.95947426067908004</v>
       </c>
       <c r="J7">
         <v>1369</v>
       </c>
-      <c r="K7">
-        <v>35.009861932938847</v>
+      <c r="K7" s="2">
+        <v>0.35009861932938852</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -718,32 +719,32 @@
       <c r="B8">
         <v>1115</v>
       </c>
-      <c r="C8">
-        <v>39.734817154171978</v>
+      <c r="C8" s="2">
+        <v>0.39734817154171981</v>
       </c>
       <c r="D8">
         <v>11848</v>
       </c>
-      <c r="E8">
-        <v>202.39918325676371</v>
+      <c r="E8" s="2">
+        <v>2.0239918325676372</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
-      <c r="G8">
-        <v>-100</v>
+      <c r="G8" s="2">
+        <v>-1</v>
       </c>
       <c r="H8">
         <v>1599</v>
       </c>
-      <c r="I8">
-        <v>75.136911281489603</v>
+      <c r="I8" s="2">
+        <v>0.75136911281489605</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>-100</v>
+      <c r="K8" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -753,32 +754,32 @@
       <c r="B9">
         <v>1069</v>
       </c>
-      <c r="C9">
-        <v>33.969972679650098</v>
+      <c r="C9" s="2">
+        <v>0.33969972679650101</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9">
-        <v>-100</v>
+      <c r="E9" s="2">
+        <v>-1</v>
       </c>
       <c r="F9">
         <v>1580</v>
       </c>
-      <c r="G9">
-        <v>19.515885022692881</v>
+      <c r="G9" s="2">
+        <v>0.1951588502269288</v>
       </c>
       <c r="H9">
         <v>1160</v>
       </c>
-      <c r="I9">
-        <v>27.05366922234391</v>
+      <c r="I9" s="2">
+        <v>0.27053669222343912</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>-100</v>
+      <c r="K9" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -786,34 +787,34 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-100</v>
+        <v>1229</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.5402160563450884</v>
       </c>
       <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-100</v>
+        <v>5571</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.42189892802450218</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
-      <c r="G10">
-        <v>-100</v>
+      <c r="G10" s="2">
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>-100</v>
+        <v>1899</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.0799561883899229</v>
       </c>
       <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>-100</v>
+        <v>1369</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0.35009861932938852</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -823,32 +824,32 @@
       <c r="B11">
         <v>1135</v>
       </c>
-      <c r="C11">
-        <v>42.241271273529321</v>
+      <c r="C11" s="2">
+        <v>0.42241271273529318</v>
       </c>
       <c r="D11">
         <v>5225</v>
       </c>
-      <c r="E11">
-        <v>33.35885655946911</v>
+      <c r="E11" s="2">
+        <v>0.33358856559469108</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
-      <c r="G11">
-        <v>-100</v>
+      <c r="G11" s="2">
+        <v>-1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>-100</v>
+      <c r="I11" s="2">
+        <v>-1</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
-      <c r="K11">
-        <v>-100</v>
+      <c r="K11" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -858,32 +859,32 @@
       <c r="B12">
         <v>1069</v>
       </c>
-      <c r="C12">
-        <v>33.969972679650098</v>
+      <c r="C12" s="2">
+        <v>0.33969972679650101</v>
       </c>
       <c r="D12">
         <v>5362</v>
       </c>
-      <c r="E12">
-        <v>36.855538540071457</v>
+      <c r="E12" s="2">
+        <v>0.36855538540071459</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
-      <c r="G12">
-        <v>-100</v>
+      <c r="G12" s="2">
+        <v>-1</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>-100</v>
+      <c r="I12" s="2">
+        <v>-1</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>-100</v>
+      <c r="K12" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -893,32 +894,32 @@
       <c r="B13">
         <v>0</v>
       </c>
-      <c r="C13">
-        <v>-100</v>
+      <c r="C13" s="2">
+        <v>-1</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13">
-        <v>-100</v>
+      <c r="E13" s="2">
+        <v>-1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
-      <c r="G13">
-        <v>-100</v>
+      <c r="G13" s="2">
+        <v>-1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>-100</v>
+      <c r="I13" s="2">
+        <v>-1</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
-      <c r="K13">
-        <v>-100</v>
+      <c r="K13" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -928,32 +929,32 @@
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14">
-        <v>-100</v>
+      <c r="C14" s="2">
+        <v>-1</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14">
-        <v>-100</v>
+      <c r="E14" s="2">
+        <v>-1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
-      <c r="G14">
-        <v>-100</v>
+      <c r="G14" s="2">
+        <v>-1</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
-      <c r="I14">
-        <v>-100</v>
+      <c r="I14" s="2">
+        <v>-1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>-100</v>
+      <c r="K14" s="2">
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -963,32 +964,32 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15">
-        <v>-100</v>
+      <c r="C15" s="2">
+        <v>-1</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>-100</v>
+        <v>3185</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.18708524757529349</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="G15">
-        <v>-100</v>
+      <c r="G15" s="2">
+        <v>-1</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
-      <c r="I15">
-        <v>-100</v>
+      <c r="I15" s="2">
+        <v>-1</v>
       </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>-100</v>
+        <v>862</v>
+      </c>
+      <c r="K15" s="2">
+        <v>-0.1499013806706114</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -996,34 +997,34 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>-100</v>
+        <v>658</v>
+      </c>
+      <c r="C16" s="2">
+        <v>-0.17537659473143349</v>
       </c>
       <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>-100</v>
+        <v>2035</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.48060234813680452</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="G16">
-        <v>-100</v>
+      <c r="G16" s="2">
+        <v>-1</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>-100</v>
+        <v>1229</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.34611171960569548</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>-100</v>
+        <v>752</v>
+      </c>
+      <c r="K16" s="2">
+        <v>-0.2583826429980276</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Алексей\Github\Data-analyzis\Prices_Tiles_Competitors\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C73E75B-E23F-473E-BBC3-EA8CE3F5E911}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C35A3B78-98F9-4176-BB4E-6E2AB4CF2F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,17 +464,14 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -548,28 +545,28 @@
         <v>0.5402160563450884</v>
       </c>
       <c r="D3">
-        <v>5570</v>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <v>0.42164369576314442</v>
+        <v>-1</v>
       </c>
       <c r="F3">
-        <v>1613</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.22012102874432671</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="I3" s="2">
-        <v>0.22015334063526831</v>
+        <v>-1</v>
       </c>
       <c r="J3">
-        <v>1369</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>0.35009861932938852</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -647,16 +644,16 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="C6" s="2">
-        <v>0.5402160563450884</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>5262</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <v>0.34303215926493102</v>
+        <v>-1</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -665,10 +662,10 @@
         <v>-1</v>
       </c>
       <c r="H6">
-        <v>1789</v>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>0.95947426067908004</v>
+        <v>-1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -787,16 +784,16 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="C10" s="2">
-        <v>0.5402160563450884</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>5571</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>0.42189892802450218</v>
+        <v>-1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -805,16 +802,16 @@
         <v>-1</v>
       </c>
       <c r="H10">
-        <v>1899</v>
+        <v>0</v>
       </c>
       <c r="I10" s="2">
-        <v>1.0799561883899229</v>
+        <v>-1</v>
       </c>
       <c r="J10">
-        <v>1369</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0.35009861932938852</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -968,10 +965,10 @@
         <v>-1</v>
       </c>
       <c r="D15">
-        <v>3185</v>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>-0.18708524757529349</v>
+        <v>-1</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -986,10 +983,10 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>862</v>
+        <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>-0.1499013806706114</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -997,16 +994,16 @@
         <v>25</v>
       </c>
       <c r="B16">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.17537659473143349</v>
+        <v>-1</v>
       </c>
       <c r="D16">
-        <v>2035</v>
+        <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.48060234813680452</v>
+        <v>-1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1015,16 +1012,16 @@
         <v>-1</v>
       </c>
       <c r="H16">
-        <v>1229</v>
+        <v>0</v>
       </c>
       <c r="I16" s="2">
-        <v>0.34611171960569548</v>
+        <v>-1</v>
       </c>
       <c r="J16">
-        <v>752</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>-0.2583826429980276</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FAE299-34E3-4C7C-9D7F-A76E9B3AFDBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D054C9-1BE7-4FD1-816A-972EA59593F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,31 +28,31 @@
     <t>Azori Eclipse Indigo Настенная плитка 50,5x20,1 см</t>
   </si>
   <si>
-    <t>Наценка1, %</t>
+    <t>Нац.1, %</t>
   </si>
   <si>
     <t>Equipe Artisan 24464 White Настенная плитка 6,5х20 см</t>
   </si>
   <si>
-    <t>Наценка2, %</t>
+    <t>Нац.2, %</t>
   </si>
   <si>
     <t>Керамин Брайт 4 Зеленая Глянцевая Настенная плитка 7,75х27,5 см</t>
   </si>
   <si>
-    <t>Наценка3, %</t>
+    <t>Нац.3, %</t>
   </si>
   <si>
     <t>Керамин Канон 1Д Серая Матовая Настенная плитка 30х90 см</t>
   </si>
   <si>
-    <t>Наценка4, %</t>
+    <t>Нац.4, %</t>
   </si>
   <si>
     <t>Global Tile Antares Серый Матовый Керамогранит 30x60 см</t>
   </si>
   <si>
-    <t>Наценка5, %</t>
+    <t>Нац.5, %</t>
   </si>
   <si>
     <t>Закуп, руб</t>
@@ -485,11 +485,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="10" max="10" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -592,16 +599,16 @@
         <v>13</v>
       </c>
       <c r="B4" s="2">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="C4" s="3">
-        <v>0.65425971877584765</v>
+        <v>0.54146928340476719</v>
       </c>
       <c r="D4" s="2">
-        <v>5568</v>
+        <v>5558</v>
       </c>
       <c r="E4" s="3">
-        <v>0.42113323124042878</v>
+        <v>0.41858090862685038</v>
       </c>
       <c r="F4" s="2">
         <v>0</v>
@@ -610,10 +617,10 @@
         <v>-1</v>
       </c>
       <c r="H4" s="2">
-        <v>1890</v>
+        <v>1790</v>
       </c>
       <c r="I4" s="3">
-        <v>1.070098576122672</v>
+        <v>0.96056955093099661</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -732,16 +739,16 @@
         <v>17</v>
       </c>
       <c r="B8" s="2">
-        <v>0</v>
+        <v>1115</v>
       </c>
       <c r="C8" s="3">
-        <v>-1</v>
+        <v>0.39734817154171981</v>
       </c>
       <c r="D8" s="2">
-        <v>11848</v>
+        <v>12070</v>
       </c>
       <c r="E8" s="3">
-        <v>2.0239918325676372</v>
+        <v>2.0806533945890759</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -843,10 +850,10 @@
         <v>0.42241271273529318</v>
       </c>
       <c r="D11" s="2">
-        <v>5225</v>
+        <v>5380</v>
       </c>
       <c r="E11" s="3">
-        <v>0.33358856559469108</v>
+        <v>0.37314956610515559</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>

--- a/Prices_Tiles_Competitors/Prices_xlsx.xlsx
+++ b/Prices_Tiles_Competitors/Prices_xlsx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\GitHub\Data-analyzis\Prices_Tiles_Competitors\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D054C9-1BE7-4FD1-816A-972EA59593F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6DCAB0-97C2-4AB8-A690-75C99479FC2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,18 +179,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -486,7 +497,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,7 +746,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2">
@@ -1050,6 +1061,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" xr:uid="{039D837C-1837-4358-80C8-35852425ADFA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>